--- a/data/facilities.xlsx
+++ b/data/facilities.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Data Sets" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Title</t>
   </si>
   <si>
+    <t>Data set</t>
+  </si>
+  <si>
     <t>Category</t>
   </si>
   <si>
@@ -31,59 +35,77 @@
     <t>BBQ</t>
   </si>
   <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Depatment</t>
+  </si>
+  <si>
     <t>Facility</t>
   </si>
   <si>
     <t>You may make snags for your mates</t>
   </si>
   <si>
-    <t>BBQ's are fun for families</t>
-  </si>
-  <si>
-    <t>assets/icons/fire.svg</t>
-  </si>
-  <si>
-    <t>Koala</t>
-  </si>
-  <si>
-    <t>Fauna</t>
-  </si>
-  <si>
-    <t>Cuteness level +1</t>
-  </si>
-  <si>
-    <t>Don't eat Koala meat</t>
-  </si>
-  <si>
-    <t>Bushfire</t>
-  </si>
-  <si>
-    <t>Emergency</t>
-  </si>
-  <si>
-    <t>Everybody Run</t>
-  </si>
-  <si>
-    <t>Aaarrgh run!!</t>
-  </si>
-  <si>
-    <t>Great Southern Blue Gum</t>
-  </si>
-  <si>
-    <t>Flora</t>
-  </si>
-  <si>
-    <t>Climb, climb, climb</t>
-  </si>
-  <si>
-    <t>Makes nice tea</t>
+    <t>Barbecues where you can relax and enjoy yourself with family and friends.</t>
+  </si>
+  <si>
+    <t>assets/icons/bbq.svg</t>
+  </si>
+  <si>
+    <t>South Australian Parks – Features and Facilities</t>
+  </si>
+  <si>
+    <t>Playground</t>
+  </si>
+  <si>
+    <t>assets/icons/playground.svg</t>
+  </si>
+  <si>
+    <t>Outdoor Gym</t>
+  </si>
+  <si>
+    <t>assets/icons/outdoor-gym.svg</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>https://data.sa.gov.au/data/dataset/parks-listings</t>
+  </si>
+  <si>
+    <t>assets/icons/sports.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Park Bench </t>
+  </si>
+  <si>
+    <t>Dept of Environment, Water and Natural Resources</t>
+  </si>
+  <si>
+    <t>Recreational Trail Routes</t>
+  </si>
+  <si>
+    <t>https://data.sa.gov.au/data/dataset/trail-routes</t>
+  </si>
+  <si>
+    <t>http://www.environment.sa.gov.au/parks/Visiting/Barbecues_and_picnics_</t>
+  </si>
+  <si>
+    <t>assets/icons/park-bench.svg</t>
+  </si>
+  <si>
+    <t>Trail</t>
+  </si>
+  <si>
+    <t>assets/icons/trail.svg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -94,15 +116,36 @@
       <color rgb="FF000000"/>
     </font>
     <font>
+      <b/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
     </font>
+    <font/>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color rgb="FF444444"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -130,17 +173,42 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -153,7 +221,100 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="40.57"/>
+    <col customWidth="1" min="2" max="2" width="40.71"/>
+    <col customWidth="1" min="3" max="3" width="43.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="11"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -171,105 +332,145 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
